--- a/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery _ TRIPHAMMER 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Ithaca Bakery/Ithaca Bakery _ TRIPHAMMER 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,248 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Smith Quality Eggs LLC</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Eggs (In-Shell)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Flour - Millers Choice</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Goat Cheese</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mustard - Honey</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nuts - Almonds (sliced)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$106.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>$106.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nuts - Pine</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$117.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>$352.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Quinoa - Tri Color</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$58.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>$174.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sugar - Extra Fine</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nuts-Almonds Blanched (Slivered)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PERF</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Vegan Egg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$99.59</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>$99.59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
